--- a/file db đuôi xlsx/bảng_youtube.xlsx
+++ b/file db đuôi xlsx/bảng_youtube.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIthub\dkt-learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIthub\dkt-learning\file db đuôi xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1113,10 +1113,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1442,23 +1445,24 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="83.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1466,13 +1470,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1480,13 +1484,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="144" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1494,13 +1498,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="108" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1508,13 +1512,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1522,13 +1526,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1536,13 +1540,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="162" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1550,13 +1554,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="126" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1564,13 +1568,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="126" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1578,13 +1582,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="126" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1592,13 +1596,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="162" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1606,13 +1610,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="234" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1620,13 +1624,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="198" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1634,13 +1638,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="252" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1648,13 +1652,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1662,13 +1666,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="198" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1676,13 +1680,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="126" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1690,13 +1694,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1704,13 +1708,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1718,13 +1722,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="162" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1732,13 +1736,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="162" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1746,13 +1750,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="216" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1760,13 +1764,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="252" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1774,13 +1778,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1788,13 +1792,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="288" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1802,13 +1806,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1816,13 +1820,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="288" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>3</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1830,13 +1834,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="216" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>3</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1844,13 +1848,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="306" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>3</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1858,13 +1862,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>3</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1872,13 +1876,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="306" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>3</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1886,13 +1890,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="216" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>4</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1900,13 +1904,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="342" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1914,13 +1918,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="306" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>4</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1928,13 +1932,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="360" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>4</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1942,13 +1946,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="378" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>4</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1956,13 +1960,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="360" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>4</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1970,13 +1974,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="288" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>4</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1984,13 +1988,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="342" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>4</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1998,13 +2002,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="324" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>4</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2012,13 +2016,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="306" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>4</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
